--- a/src/test/resources/template/01_Template_foreach.xlsx
+++ b/src/test/resources/template/01_Template_foreach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkspace\poi-el\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkspace\poi-el\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -556,17 +556,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
